--- a/URS/DbLayouts/L6-共同作業/AcAcctCheck.xlsx
+++ b/URS/DbLayouts/L6-共同作業/AcAcctCheck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821A9C1-8999-4A52-910D-C4757ADE9446}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8DA62-58D3-4EEB-A992-B48D7E7A9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate,BranchNo,CurrencyCode,AcctCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,6 +298,22 @@
   <si>
     <t>AcctItem</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubBookCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,BranchNo,CurrencyCode,AcctCode,AcSubBookCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -951,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -974,10 +986,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -996,13 +1008,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>31</v>
@@ -1083,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="32">
         <v>8</v>
@@ -1143,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>43</v>
@@ -1159,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>44</v>
@@ -1338,10 +1350,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -1357,13 +1369,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -1374,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>12</v>
@@ -1393,17 +1405,34 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>70</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>18</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1454,13 +1483,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1487,24 +1516,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
